--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Calr-Tshr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Calr-Tshr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>69.27361690613991</v>
+        <v>72.79331566666666</v>
       </c>
       <c r="H2">
-        <v>69.27361690613991</v>
+        <v>218.379947</v>
       </c>
       <c r="I2">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141505</v>
       </c>
       <c r="J2">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141506</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.454662909998737</v>
+        <v>0.8749903333333333</v>
       </c>
       <c r="N2">
-        <v>0.454662909998737</v>
+        <v>2.624971</v>
       </c>
       <c r="O2">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="P2">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="Q2">
-        <v>31.49614424868327</v>
+        <v>63.69344753961521</v>
       </c>
       <c r="R2">
-        <v>31.49614424868327</v>
+        <v>573.2410278565369</v>
       </c>
       <c r="S2">
-        <v>0.06008919329045195</v>
+        <v>0.07554202359272502</v>
       </c>
       <c r="T2">
-        <v>0.06008919329045195</v>
+        <v>0.07554202359272504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.27361690613991</v>
+        <v>72.79331566666666</v>
       </c>
       <c r="H3">
-        <v>69.27361690613991</v>
+        <v>218.379947</v>
       </c>
       <c r="I3">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141505</v>
       </c>
       <c r="J3">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141506</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.74516466488891</v>
+        <v>0.8147036666666666</v>
       </c>
       <c r="N3">
-        <v>0.74516466488891</v>
+        <v>2.444111</v>
       </c>
       <c r="O3">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="P3">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="Q3">
-        <v>51.62025152750648</v>
+        <v>59.30498118245743</v>
       </c>
       <c r="R3">
-        <v>51.62025152750648</v>
+        <v>533.7448306421169</v>
       </c>
       <c r="S3">
-        <v>0.09848250780308636</v>
+        <v>0.07033719261098074</v>
       </c>
       <c r="T3">
-        <v>0.09848250780308636</v>
+        <v>0.07033719261098076</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>69.27361690613991</v>
+        <v>72.79331566666666</v>
       </c>
       <c r="H4">
-        <v>69.27361690613991</v>
+        <v>218.379947</v>
       </c>
       <c r="I4">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141505</v>
       </c>
       <c r="J4">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141506</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.935470285848349</v>
+        <v>1.586789</v>
       </c>
       <c r="N4">
-        <v>0.935470285848349</v>
+        <v>4.760367</v>
       </c>
       <c r="O4">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="P4">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="Q4">
-        <v>64.80341020893572</v>
+        <v>115.5076325733943</v>
       </c>
       <c r="R4">
-        <v>64.80341020893572</v>
+        <v>1039.568693160549</v>
       </c>
       <c r="S4">
-        <v>0.1236336934190914</v>
+        <v>0.1369949444104448</v>
       </c>
       <c r="T4">
-        <v>0.1236336934190914</v>
+        <v>0.1369949444104448</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>114.82924172502</v>
+        <v>117.1700846666667</v>
       </c>
       <c r="H5">
-        <v>114.82924172502</v>
+        <v>351.510254</v>
       </c>
       <c r="I5">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152877</v>
       </c>
       <c r="J5">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152878</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.454662909998737</v>
+        <v>0.8749903333333333</v>
       </c>
       <c r="N5">
-        <v>0.454662909998737</v>
+        <v>2.624971</v>
       </c>
       <c r="O5">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="P5">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="Q5">
-        <v>52.20859719564598</v>
+        <v>102.5226914391816</v>
       </c>
       <c r="R5">
-        <v>52.20859719564598</v>
+        <v>922.704222952634</v>
       </c>
       <c r="S5">
-        <v>0.09960496953349049</v>
+        <v>0.1215944790972624</v>
       </c>
       <c r="T5">
-        <v>0.09960496953349049</v>
+        <v>0.1215944790972624</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>114.82924172502</v>
+        <v>117.1700846666667</v>
       </c>
       <c r="H6">
-        <v>114.82924172502</v>
+        <v>351.510254</v>
       </c>
       <c r="I6">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152877</v>
       </c>
       <c r="J6">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152878</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.74516466488891</v>
+        <v>0.8147036666666666</v>
       </c>
       <c r="N6">
-        <v>0.74516466488891</v>
+        <v>2.444111</v>
       </c>
       <c r="O6">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="P6">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="Q6">
-        <v>85.56669342947217</v>
+        <v>95.45889760157712</v>
       </c>
       <c r="R6">
-        <v>85.56669342947217</v>
+        <v>859.130078414194</v>
       </c>
       <c r="S6">
-        <v>0.163246445028691</v>
+        <v>0.1132166427365823</v>
       </c>
       <c r="T6">
-        <v>0.163246445028691</v>
+        <v>0.1132166427365823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>114.82924172502</v>
+        <v>117.1700846666667</v>
       </c>
       <c r="H7">
-        <v>114.82924172502</v>
+        <v>351.510254</v>
       </c>
       <c r="I7">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152877</v>
       </c>
       <c r="J7">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152878</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.935470285848349</v>
+        <v>1.586789</v>
       </c>
       <c r="N7">
-        <v>0.935470285848349</v>
+        <v>4.760367</v>
       </c>
       <c r="O7">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="P7">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="Q7">
-        <v>107.4193435802536</v>
+        <v>185.9242014781353</v>
       </c>
       <c r="R7">
-        <v>107.4193435802536</v>
+        <v>1673.317813303218</v>
       </c>
       <c r="S7">
-        <v>0.2049375202425667</v>
+        <v>0.220510758281443</v>
       </c>
       <c r="T7">
-        <v>0.2049375202425667</v>
+        <v>0.220510758281443</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.3694755379861</v>
+        <v>67.37122333333333</v>
       </c>
       <c r="H8">
-        <v>61.3694755379861</v>
+        <v>202.11367</v>
       </c>
       <c r="I8">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705617</v>
       </c>
       <c r="J8">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705618</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.454662909998737</v>
+        <v>0.8749903333333333</v>
       </c>
       <c r="N8">
-        <v>0.454662909998737</v>
+        <v>2.624971</v>
       </c>
       <c r="O8">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="P8">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="Q8">
-        <v>27.90242433319706</v>
+        <v>58.94916916150778</v>
       </c>
       <c r="R8">
-        <v>27.90242433319706</v>
+        <v>530.54252245357</v>
       </c>
       <c r="S8">
-        <v>0.0532329975311115</v>
+        <v>0.06991519064501028</v>
       </c>
       <c r="T8">
-        <v>0.0532329975311115</v>
+        <v>0.0699151906450103</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.3694755379861</v>
+        <v>67.37122333333333</v>
       </c>
       <c r="H9">
-        <v>61.3694755379861</v>
+        <v>202.11367</v>
       </c>
       <c r="I9">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705617</v>
       </c>
       <c r="J9">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705618</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.74516466488891</v>
+        <v>0.8147036666666666</v>
       </c>
       <c r="N9">
-        <v>0.74516466488891</v>
+        <v>2.444111</v>
       </c>
       <c r="O9">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="P9">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="Q9">
-        <v>45.73036467367157</v>
+        <v>54.88758267748555</v>
       </c>
       <c r="R9">
-        <v>45.73036467367157</v>
+        <v>493.98824409737</v>
       </c>
       <c r="S9">
-        <v>0.08724562284267495</v>
+        <v>0.0650980473775012</v>
       </c>
       <c r="T9">
-        <v>0.08724562284267495</v>
+        <v>0.06509804737750122</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.3694755379861</v>
+        <v>67.37122333333333</v>
       </c>
       <c r="H10">
-        <v>61.3694755379861</v>
+        <v>202.11367</v>
       </c>
       <c r="I10">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705617</v>
       </c>
       <c r="J10">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705618</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.935470285848349</v>
+        <v>1.586789</v>
       </c>
       <c r="N10">
-        <v>0.935470285848349</v>
+        <v>4.760367</v>
       </c>
       <c r="O10">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="P10">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="Q10">
-        <v>57.40932082388312</v>
+        <v>106.9039161018766</v>
       </c>
       <c r="R10">
-        <v>57.40932082388312</v>
+        <v>962.13524491689</v>
       </c>
       <c r="S10">
-        <v>0.1095270503088358</v>
+        <v>0.1267907212480502</v>
       </c>
       <c r="T10">
-        <v>0.1095270503088358</v>
+        <v>0.1267907212480502</v>
       </c>
     </row>
   </sheetData>
